--- a/zipfCheck/TestResults.xlsx
+++ b/zipfCheck/TestResults.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filestore.soton.ac.uk\users\ac19g14\mydocuments\Year 4\ML\zipfCheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECS WORK FOLDERS\Year 4\COMP62something - Adv Machine Learning\project\zipfCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -298,7 +298,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B9D9-4C55-B4FC-BB61A0C8F11A}"/>
             </c:ext>
@@ -437,7 +437,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B9D9-4C55-B4FC-BB61A0C8F11A}"/>
             </c:ext>
@@ -451,11 +451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2090038832"/>
-        <c:axId val="2090034672"/>
+        <c:axId val="472586976"/>
+        <c:axId val="472592856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2090038832"/>
+        <c:axId val="472586976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -513,12 +513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090034672"/>
+        <c:crossAx val="472592856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2090034672"/>
+        <c:axId val="472592856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090038832"/>
+        <c:crossAx val="472586976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -826,7 +826,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-935C-46EB-B03D-49E27AB06943}"/>
             </c:ext>
@@ -941,7 +941,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-935C-46EB-B03D-49E27AB06943}"/>
             </c:ext>
@@ -955,11 +955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2090038832"/>
-        <c:axId val="2090034672"/>
+        <c:axId val="472588544"/>
+        <c:axId val="184506040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2090038832"/>
+        <c:axId val="472588544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1017,12 +1017,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090034672"/>
+        <c:crossAx val="184506040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2090034672"/>
+        <c:axId val="184506040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090038832"/>
+        <c:crossAx val="472588544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1699,15 +1699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1729,15 +1729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2027,7 +2027,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/zipfCheck/TestResults.xlsx
+++ b/zipfCheck/TestResults.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>score = (sum(1/freq)/# of words)</t>
   </si>
   <si>
     <t>score = (sum(1/freq))</t>
+  </si>
+  <si>
+    <t>match frequency</t>
+  </si>
+  <si>
+    <t>non match freq</t>
+  </si>
+  <si>
+    <t>match c-freq</t>
+  </si>
+  <si>
+    <t>non m c-freq</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -197,7 +212,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -248,7 +263,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -336,7 +351,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -387,7 +402,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$14</c:f>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -451,11 +466,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472586976"/>
-        <c:axId val="472592856"/>
+        <c:axId val="263771184"/>
+        <c:axId val="263771576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472586976"/>
+        <c:axId val="263771184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -513,12 +528,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472592856"/>
+        <c:crossAx val="263771576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472592856"/>
+        <c:axId val="263771576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472586976"/>
+        <c:crossAx val="263771184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -725,7 +740,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$19:$A$32</c:f>
+              <c:f>Sheet1!$A$27:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -776,7 +791,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$32</c:f>
+              <c:f>Sheet1!$B$27:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -840,7 +855,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$19:$A$32</c:f>
+              <c:f>Sheet1!$A$27:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -891,7 +906,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$C$32</c:f>
+              <c:f>Sheet1!$C$27:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -955,11 +970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472588544"/>
-        <c:axId val="184506040"/>
+        <c:axId val="316009800"/>
+        <c:axId val="316010192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472588544"/>
+        <c:axId val="316009800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1017,12 +1032,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184506040"/>
+        <c:crossAx val="316010192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184506040"/>
+        <c:axId val="316010192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472588544"/>
+        <c:crossAx val="316009800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1138,7 +1153,465 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.84750239060152088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80679386184599977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77573880970811893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7210054186967807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60780474477482804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43791266335777057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25007968671736258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1295022995309868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.628159009152589E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3086380401621032E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0564181958927166E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0017758754155004E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.99517150275588762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99075297225891679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98341912267116116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94269575912176018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78098665330478756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51979228351478157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27991618457613998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14499157290575315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9147724684553324E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2114061859427001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5259873365827015E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4662232952218393E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420247448"/>
+        <c:axId val="420244312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420247448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420244312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420244312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420247448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1694,20 +2167,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1728,15 +2717,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1753,6 +2742,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2024,329 +3043,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>106</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>3349</v>
       </c>
+      <c r="E2">
+        <f>1-SUM(C$2:C2)/C16</f>
+        <v>0.84750239060152088</v>
+      </c>
+      <c r="F2">
+        <f>1-SUM(B$2:B2)/B16</f>
+        <v>0.99517150275588762</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H3" si="0">((F2)+(1-E2))/(2)</f>
+        <v>0.57383455607718337</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>97</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>894</v>
       </c>
+      <c r="E3">
+        <f>1-SUM(C$2:C3)/C$16</f>
+        <v>0.80679386184599977</v>
+      </c>
+      <c r="F3">
+        <f>1-SUM(B$2:B3)/B$16</f>
+        <v>0.99075297225891679</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.59197955520645851</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1E-4</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>161</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>682</v>
       </c>
+      <c r="E4">
+        <f>1-SUM(C$2:C4)/C$16</f>
+        <v>0.77573880970811893</v>
+      </c>
+      <c r="F4">
+        <f>1-SUM(B$2:B4)/B$16</f>
+        <v>0.98341912267116116</v>
+      </c>
+      <c r="H4">
+        <f>((F4)+(1-E4))/(2)</f>
+        <v>0.60384015648152112</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3.1E-4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>894</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1202</v>
       </c>
+      <c r="E5">
+        <f>1-SUM(C$2:C5)/C$16</f>
+        <v>0.7210054186967807</v>
+      </c>
+      <c r="F5">
+        <f>1-SUM(B$2:B5)/B$16</f>
+        <v>0.94269575912176018</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H15" si="1">((F5)+(1-E5))/(2)</f>
+        <v>0.61084517021248974</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1E-3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3550</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2486</v>
       </c>
+      <c r="E6">
+        <f>1-SUM(C$2:C6)/C$16</f>
+        <v>0.60780474477482804</v>
+      </c>
+      <c r="F6">
+        <f>1-SUM(B$2:B6)/B$16</f>
+        <v>0.78098665330478756</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.58659095426497976</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5734</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>3731</v>
       </c>
+      <c r="E7">
+        <f>1-SUM(C$2:C7)/C$16</f>
+        <v>0.43791266335777057</v>
+      </c>
+      <c r="F7">
+        <f>1-SUM(B$2:B7)/B$16</f>
+        <v>0.51979228351478157</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.54093981007850545</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>0.01</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5266</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>4125</v>
       </c>
+      <c r="E8">
+        <f>1-SUM(C$2:C8)/C$16</f>
+        <v>0.25007968671736258</v>
+      </c>
+      <c r="F8">
+        <f>1-SUM(B$2:B8)/B$16</f>
+        <v>0.27991618457613998</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.51491824892938864</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2962</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2648</v>
       </c>
+      <c r="E9">
+        <f>1-SUM(C$2:C9)/C$16</f>
+        <v>0.1295022995309868</v>
+      </c>
+      <c r="F9">
+        <f>1-SUM(B$2:B9)/B$16</f>
+        <v>0.14499157290575315</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.50774463668738323</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>0.05</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1665</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1608</v>
       </c>
+      <c r="E10">
+        <f>1-SUM(C$2:C10)/C$16</f>
+        <v>5.628159009152589E-2</v>
+      </c>
+      <c r="F10">
+        <f>1-SUM(B$2:B10)/B$16</f>
+        <v>6.9147724684553324E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.50643306729651372</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>813</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>729</v>
       </c>
+      <c r="E11">
+        <f>1-SUM(C$2:C11)/C$16</f>
+        <v>2.3086380401621032E-2</v>
+      </c>
+      <c r="F11">
+        <f>1-SUM(B$2:B11)/B$16</f>
+        <v>3.2114061859427001E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.50451384072890293</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0.1</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>370</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>275</v>
       </c>
+      <c r="E12">
+        <f>1-SUM(C$2:C12)/C$16</f>
+        <v>1.0564181958927166E-2</v>
+      </c>
+      <c r="F12">
+        <f>1-SUM(B$2:B12)/B$16</f>
+        <v>1.5259873365827015E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.50234784570344992</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>0.2</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>323</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>210</v>
       </c>
+      <c r="E13">
+        <f>1-SUM(C$2:C13)/C$16</f>
+        <v>1.0017758754155004E-3</v>
+      </c>
+      <c r="F13">
+        <f>1-SUM(B$2:B13)/B$16</f>
+        <v>5.4662232952218393E-4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.49977242322705334</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>0.3</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>22</v>
       </c>
+      <c r="E14">
+        <f>1-SUM(C$2:C14)/C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>1-SUM(B$2:B14)/B$16</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>0.4</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <f>1-SUM(C$2:C15)/C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>1-SUM(B$2:B15)/B$16</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B19">
-        <v>60</v>
-      </c>
-      <c r="C19">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1E-4</v>
-      </c>
-      <c r="B21">
-        <v>72</v>
-      </c>
-      <c r="C21">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3.1E-4</v>
-      </c>
-      <c r="B22">
-        <v>119</v>
-      </c>
-      <c r="C22">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1E-3</v>
-      </c>
-      <c r="B23">
-        <v>207</v>
-      </c>
-      <c r="C23">
-        <v>670</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>21953</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C2:C15)</f>
+        <v>21961</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="B24">
-        <v>1093</v>
-      </c>
-      <c r="C24">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.01</v>
-      </c>
-      <c r="B25">
-        <v>3548</v>
-      </c>
-      <c r="C25">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B26">
-        <v>4633</v>
-      </c>
-      <c r="C26">
-        <v>2978</v>
+      <c r="A24" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B27">
-        <v>3360</v>
+        <v>60</v>
       </c>
       <c r="C27">
-        <v>2529</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7.4999999999999997E-2</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="B28">
-        <v>1827</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.1</v>
+        <v>1E-4</v>
       </c>
       <c r="B29">
-        <v>1232</v>
+        <v>72</v>
       </c>
       <c r="C29">
-        <v>970</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.2</v>
+        <v>3.1E-4</v>
       </c>
       <c r="B30">
-        <v>2224</v>
+        <v>119</v>
       </c>
       <c r="C30">
-        <v>2135</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="B31">
-        <v>1084</v>
+        <v>207</v>
       </c>
       <c r="C31">
-        <v>1131</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="B32">
+        <v>1093</v>
+      </c>
+      <c r="C32">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.01</v>
+      </c>
+      <c r="B33">
+        <v>3548</v>
+      </c>
+      <c r="C33">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B34">
+        <v>4633</v>
+      </c>
+      <c r="C34">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.05</v>
+      </c>
+      <c r="B35">
+        <v>3360</v>
+      </c>
+      <c r="C35">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B36">
+        <v>1827</v>
+      </c>
+      <c r="C36">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.1</v>
+      </c>
+      <c r="B37">
+        <v>1232</v>
+      </c>
+      <c r="C37">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.2</v>
+      </c>
+      <c r="B38">
+        <v>2224</v>
+      </c>
+      <c r="C38">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.3</v>
+      </c>
+      <c r="B39">
+        <v>1084</v>
+      </c>
+      <c r="C39">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>0.4</v>
       </c>
-      <c r="B32">
+      <c r="B40">
         <v>643</v>
       </c>
-      <c r="C32">
+      <c r="C40">
         <v>687</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
